--- a/Log Books.xlsx
+++ b/Log Books.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vokasiregist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Rest Client Registrasi</t>
   </si>
   <si>
-    <t>Soal</t>
-  </si>
-  <si>
     <t>Forgot Password</t>
   </si>
   <si>
@@ -181,12 +178,36 @@
   </si>
   <si>
     <t>Layout Data Candidate Result Test</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Registrasi</t>
+  </si>
+  <si>
+    <t>info candidate</t>
+  </si>
+  <si>
+    <t>info dokumen</t>
+  </si>
+  <si>
+    <t>menampilkan soal</t>
+  </si>
+  <si>
+    <t>menampilkan kategori soal</t>
+  </si>
+  <si>
+    <t>konfirmasi soal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +591,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -583,7 +604,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -613,7 +634,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -633,7 +654,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -643,7 +664,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -653,7 +674,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -663,7 +684,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -673,7 +694,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -683,9 +704,27 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -694,10 +733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -738,7 +777,9 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
@@ -748,7 +789,9 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
@@ -770,7 +813,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -780,7 +823,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -790,9 +833,51 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,10 +886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -867,7 +952,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -877,9 +962,43 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1004,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
@@ -1057,7 +1176,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1067,7 +1186,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1112,7 +1231,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1191,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1201,7 +1320,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1239,7 +1358,7 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1301,7 +1420,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1430,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
   </sheetData>

--- a/Log Books.xlsx
+++ b/Log Books.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vokasiregist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VokasiRegist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>f_crud c_choose_major</t>
   </si>
   <si>
-    <t>Layout Data Candidate Document</t>
-  </si>
-  <si>
     <t>f_crud_c_choose_major</t>
   </si>
   <si>
@@ -177,12 +174,6 @@
     <t>f_search_choose_major</t>
   </si>
   <si>
-    <t>Layout Data Candidate Result Test</t>
-  </si>
-  <si>
-    <t>candidate</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -202,12 +193,21 @@
   </si>
   <si>
     <t>konfirmasi soal</t>
+  </si>
+  <si>
+    <t>Manage Candidate</t>
+  </si>
+  <si>
+    <t>Manage Parent</t>
+  </si>
+  <si>
+    <t>Manage Candidate + Parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +561,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
@@ -634,7 +634,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -704,16 +704,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
@@ -736,7 +733,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -790,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -843,7 +840,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -888,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -972,7 +969,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1276,15 +1273,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1306,9 +1303,6 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1329,7 +1323,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1333,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1421,7 +1419,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1431,7 +1429,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1"/>
     </row>
